--- a/data/trans_media/MCS12_SP-Estudios-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,27; 51,37</t>
+          <t>50,29; 51,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,09</t>
+          <t>49,83; 51,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,32; 51,55</t>
+          <t>50,3; 51,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,64; 51,16</t>
+          <t>49,52; 51,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,35; 50,42</t>
+          <t>49,38; 50,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,59; 47,79</t>
+          <t>46,61; 47,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,99; 48,54</t>
+          <t>46,89; 48,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,84; 48,15</t>
+          <t>46,76; 48,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,96; 50,72</t>
+          <t>49,89; 50,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,12; 49,04</t>
+          <t>48,19; 49,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,64; 49,7</t>
+          <t>48,64; 49,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,14; 49,17</t>
+          <t>48,1; 49,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,08; 53,66</t>
+          <t>53,07; 53,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 52,85</t>
+          <t>52,19; 52,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,43; 53,09</t>
+          <t>52,4; 53,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,57; 53,39</t>
+          <t>52,59; 53,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,82; 51,62</t>
+          <t>50,78; 51,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,58; 50,46</t>
+          <t>49,55; 50,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 51,88</t>
+          <t>51,11; 51,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,67</t>
+          <t>50,03; 51,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,08; 52,58</t>
+          <t>52,09; 52,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,65</t>
+          <t>51,03; 51,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,39</t>
+          <t>51,88; 52,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,41</t>
+          <t>51,42; 52,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,68; 53,81</t>
+          <t>52,72; 53,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 53,94</t>
+          <t>52,46; 53,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,66; 53,84</t>
+          <t>52,71; 53,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,54</t>
+          <t>52,15; 53,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,71; 52,15</t>
+          <t>50,71; 52,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,72</t>
+          <t>51,35; 52,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,95</t>
+          <t>51,68; 52,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,09; 52,27</t>
+          <t>51,2; 52,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,97; 52,86</t>
+          <t>51,99; 52,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,15</t>
+          <t>52,17; 53,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,22</t>
+          <t>52,38; 53,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 52,72</t>
+          <t>51,87; 52,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,32; 52,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,77; 52,33</t>
+          <t>51,77; 52,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 52,68</t>
+          <t>52,14; 52,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,88</t>
+          <t>52,27; 52,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,9; 49,58</t>
+          <t>48,9; 49,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,28; 50,93</t>
+          <t>50,26; 50,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,79; 50,8</t>
+          <t>49,76; 50,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,43; 51,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,4; 50,85</t>
+          <t>50,36; 50,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,71</t>
+          <t>51,29; 51,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,01; 51,71</t>
+          <t>51,06; 51,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/MCS12_SP-Estudios-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,29; 51,34</t>
+          <t>50,28; 51,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,08</t>
+          <t>49,8; 51,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,3; 51,54</t>
+          <t>50,35; 51,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 50,42</t>
+          <t>49,4; 50,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,61; 47,88</t>
+          <t>46,51; 47,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,89; 48,49</t>
+          <t>47,04; 48,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,89; 50,71</t>
+          <t>49,97; 50,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,19; 49,07</t>
+          <t>48,13; 49,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,64; 49,68</t>
+          <t>48,65; 49,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 53,65</t>
+          <t>53,04; 53,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,85</t>
+          <t>52,15; 52,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,1</t>
+          <t>52,41; 53,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,78; 51,62</t>
+          <t>50,82; 51,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,55; 50,49</t>
+          <t>49,51; 50,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 51,86</t>
+          <t>51,1; 51,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,09; 52,62</t>
+          <t>52,1; 52,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 51,62</t>
+          <t>51,07; 51,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,38</t>
+          <t>51,86; 52,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,72; 53,86</t>
+          <t>52,67; 53,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,46; 53,89</t>
+          <t>52,53; 53,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,71; 53,78</t>
+          <t>52,71; 53,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,71; 52,14</t>
+          <t>50,79; 52,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,76</t>
+          <t>51,25; 52,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,68; 52,98</t>
+          <t>51,72; 53,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,99; 52,91</t>
+          <t>51,96; 52,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>52,17; 53,19</t>
+          <t>52,15; 53,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 53,24</t>
+          <t>52,38; 53,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,32; 52,8</t>
+          <t>52,32; 52,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,77; 52,31</t>
+          <t>51,74; 52,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,14; 52,7</t>
+          <t>52,17; 52,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,47; 51,05</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,9; 49,57</t>
+          <t>48,85; 49,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,26; 50,93</t>
+          <t>50,26; 50,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 51,83</t>
+          <t>51,46; 51,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,36; 50,84</t>
+          <t>50,39; 50,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,7</t>
+          <t>51,31; 51,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
